--- a/contexts.xlsx
+++ b/contexts.xlsx
@@ -8,16 +8,22 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/angus/vc/nlp_youth_awards/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4932E57-BDBE-1240-A058-360F14E61FFD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6EEED29-6E34-3844-AD80-67B20E35ACAD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3260" yWindow="2900" windowWidth="25560" windowHeight="14620" activeTab="2" xr2:uid="{93BF21BB-41B4-D544-8F23-BCC3D9D3D76D}"/>
+    <workbookView xWindow="3240" yWindow="2900" windowWidth="25560" windowHeight="14620" activeTab="8" xr2:uid="{93BF21BB-41B4-D544-8F23-BCC3D9D3D76D}"/>
   </bookViews>
   <sheets>
     <sheet name="lettuce" sheetId="1" r:id="rId1"/>
     <sheet name="cucumber" sheetId="2" r:id="rId2"/>
     <sheet name="butter" sheetId="3" r:id="rId3"/>
+    <sheet name="sugar" sheetId="4" r:id="rId4"/>
+    <sheet name="car" sheetId="5" r:id="rId5"/>
+    <sheet name="lorry" sheetId="6" r:id="rId6"/>
+    <sheet name="plane" sheetId="7" r:id="rId7"/>
+    <sheet name="bird" sheetId="8" r:id="rId8"/>
+    <sheet name="dog" sheetId="9" r:id="rId9"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -38,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="123">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200" uniqueCount="134">
   <si>
     <t> salad</t>
   </si>
@@ -407,13 +413,46 @@
   </si>
   <si>
     <t> cool</t>
+  </si>
+  <si>
+    <t> butter</t>
+  </si>
+  <si>
+    <t> diet</t>
+  </si>
+  <si>
+    <t> blood</t>
+  </si>
+  <si>
+    <t> carbohydrate</t>
+  </si>
+  <si>
+    <t> protein</t>
+  </si>
+  <si>
+    <t> food</t>
+  </si>
+  <si>
+    <t> diabetes</t>
+  </si>
+  <si>
+    <t> drink</t>
+  </si>
+  <si>
+    <t> meal</t>
+  </si>
+  <si>
+    <t> acid</t>
+  </si>
+  <si>
+    <t> syrup</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -430,6 +469,18 @@
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="Aptos"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -452,21 +503,30 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -806,12 +866,13 @@
   <dimension ref="A1:C50"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="2" width="10.83203125" style="4"/>
+    <col min="3" max="16384" width="10.83203125" style="5"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
@@ -821,7 +882,7 @@
       <c r="B1" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="C1">
+      <c r="C1" s="5">
         <f>ROUND(((A1/$A$1)*100),0)</f>
         <v>100</v>
       </c>
@@ -833,7 +894,7 @@
       <c r="B2" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="C2">
+      <c r="C2" s="5">
         <f t="shared" ref="C2:C50" si="0">ROUND(((A2/$A$1)*100),0)</f>
         <v>90</v>
       </c>
@@ -845,7 +906,7 @@
       <c r="B3" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="C3">
+      <c r="C3" s="5">
         <f t="shared" si="0"/>
         <v>74</v>
       </c>
@@ -857,7 +918,7 @@
       <c r="B4" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="C4">
+      <c r="C4" s="5">
         <f t="shared" si="0"/>
         <v>63</v>
       </c>
@@ -869,7 +930,7 @@
       <c r="B5" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="C5">
+      <c r="C5" s="5">
         <f t="shared" si="0"/>
         <v>63</v>
       </c>
@@ -881,7 +942,7 @@
       <c r="B6" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="C6">
+      <c r="C6" s="5">
         <f t="shared" si="0"/>
         <v>57</v>
       </c>
@@ -893,7 +954,7 @@
       <c r="B7" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="C7">
+      <c r="C7" s="5">
         <f t="shared" si="0"/>
         <v>57</v>
       </c>
@@ -905,7 +966,7 @@
       <c r="B8" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="C8">
+      <c r="C8" s="5">
         <f t="shared" si="0"/>
         <v>55</v>
       </c>
@@ -917,7 +978,7 @@
       <c r="B9" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="C9">
+      <c r="C9" s="5">
         <f t="shared" si="0"/>
         <v>55</v>
       </c>
@@ -929,7 +990,7 @@
       <c r="B10" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="C10">
+      <c r="C10" s="5">
         <f t="shared" si="0"/>
         <v>51</v>
       </c>
@@ -941,7 +1002,7 @@
       <c r="B11" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="C11">
+      <c r="C11" s="5">
         <f t="shared" si="0"/>
         <v>50</v>
       </c>
@@ -953,7 +1014,7 @@
       <c r="B12" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="C12">
+      <c r="C12" s="5">
         <f t="shared" si="0"/>
         <v>49</v>
       </c>
@@ -965,7 +1026,7 @@
       <c r="B13" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="C13">
+      <c r="C13" s="5">
         <f t="shared" si="0"/>
         <v>49</v>
       </c>
@@ -977,7 +1038,7 @@
       <c r="B14" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="C14">
+      <c r="C14" s="5">
         <f t="shared" si="0"/>
         <v>47</v>
       </c>
@@ -989,7 +1050,7 @@
       <c r="B15" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="C15">
+      <c r="C15" s="5">
         <f t="shared" si="0"/>
         <v>47</v>
       </c>
@@ -1001,7 +1062,7 @@
       <c r="B16" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="C16">
+      <c r="C16" s="5">
         <f t="shared" si="0"/>
         <v>43</v>
       </c>
@@ -1013,7 +1074,7 @@
       <c r="B17" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="C17">
+      <c r="C17" s="5">
         <f t="shared" si="0"/>
         <v>42</v>
       </c>
@@ -1025,7 +1086,7 @@
       <c r="B18" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="C18">
+      <c r="C18" s="5">
         <f t="shared" si="0"/>
         <v>42</v>
       </c>
@@ -1037,7 +1098,7 @@
       <c r="B19" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="C19">
+      <c r="C19" s="5">
         <f t="shared" si="0"/>
         <v>39</v>
       </c>
@@ -1049,7 +1110,7 @@
       <c r="B20" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="C20">
+      <c r="C20" s="5">
         <f t="shared" si="0"/>
         <v>39</v>
       </c>
@@ -1061,7 +1122,7 @@
       <c r="B21" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="C21">
+      <c r="C21" s="5">
         <f t="shared" si="0"/>
         <v>38</v>
       </c>
@@ -1073,7 +1134,7 @@
       <c r="B22" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="C22">
+      <c r="C22" s="5">
         <f t="shared" si="0"/>
         <v>38</v>
       </c>
@@ -1085,7 +1146,7 @@
       <c r="B23" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="C23">
+      <c r="C23" s="5">
         <f t="shared" si="0"/>
         <v>38</v>
       </c>
@@ -1097,7 +1158,7 @@
       <c r="B24" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="C24">
+      <c r="C24" s="5">
         <f t="shared" si="0"/>
         <v>38</v>
       </c>
@@ -1109,7 +1170,7 @@
       <c r="B25" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="C25">
+      <c r="C25" s="5">
         <f t="shared" si="0"/>
         <v>38</v>
       </c>
@@ -1121,7 +1182,7 @@
       <c r="B26" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="C26">
+      <c r="C26" s="5">
         <f t="shared" si="0"/>
         <v>38</v>
       </c>
@@ -1133,7 +1194,7 @@
       <c r="B27" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="C27">
+      <c r="C27" s="5">
         <f t="shared" si="0"/>
         <v>37</v>
       </c>
@@ -1145,7 +1206,7 @@
       <c r="B28" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="C28">
+      <c r="C28" s="5">
         <f t="shared" si="0"/>
         <v>36</v>
       </c>
@@ -1157,7 +1218,7 @@
       <c r="B29" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="C29">
+      <c r="C29" s="5">
         <f t="shared" si="0"/>
         <v>36</v>
       </c>
@@ -1169,7 +1230,7 @@
       <c r="B30" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="C30">
+      <c r="C30" s="5">
         <f t="shared" si="0"/>
         <v>36</v>
       </c>
@@ -1181,7 +1242,7 @@
       <c r="B31" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="C31">
+      <c r="C31" s="5">
         <f t="shared" si="0"/>
         <v>35</v>
       </c>
@@ -1193,7 +1254,7 @@
       <c r="B32" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="C32">
+      <c r="C32" s="5">
         <f t="shared" si="0"/>
         <v>34</v>
       </c>
@@ -1205,7 +1266,7 @@
       <c r="B33" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="C33">
+      <c r="C33" s="5">
         <f t="shared" si="0"/>
         <v>34</v>
       </c>
@@ -1217,7 +1278,7 @@
       <c r="B34" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="C34">
+      <c r="C34" s="5">
         <f t="shared" si="0"/>
         <v>33</v>
       </c>
@@ -1229,7 +1290,7 @@
       <c r="B35" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="C35">
+      <c r="C35" s="5">
         <f t="shared" si="0"/>
         <v>33</v>
       </c>
@@ -1241,7 +1302,7 @@
       <c r="B36" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="C36">
+      <c r="C36" s="5">
         <f t="shared" si="0"/>
         <v>32</v>
       </c>
@@ -1253,7 +1314,7 @@
       <c r="B37" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="C37">
+      <c r="C37" s="5">
         <f t="shared" si="0"/>
         <v>31</v>
       </c>
@@ -1265,7 +1326,7 @@
       <c r="B38" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="C38">
+      <c r="C38" s="5">
         <f t="shared" si="0"/>
         <v>30</v>
       </c>
@@ -1277,7 +1338,7 @@
       <c r="B39" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="C39">
+      <c r="C39" s="5">
         <f t="shared" si="0"/>
         <v>30</v>
       </c>
@@ -1289,7 +1350,7 @@
       <c r="B40" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="C40">
+      <c r="C40" s="5">
         <f t="shared" si="0"/>
         <v>30</v>
       </c>
@@ -1301,7 +1362,7 @@
       <c r="B41" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="C41">
+      <c r="C41" s="5">
         <f t="shared" si="0"/>
         <v>29</v>
       </c>
@@ -1313,7 +1374,7 @@
       <c r="B42" s="4" t="s">
         <v>77</v>
       </c>
-      <c r="C42">
+      <c r="C42" s="5">
         <f t="shared" si="0"/>
         <v>29</v>
       </c>
@@ -1325,7 +1386,7 @@
       <c r="B43" s="4" t="s">
         <v>78</v>
       </c>
-      <c r="C43">
+      <c r="C43" s="5">
         <f t="shared" si="0"/>
         <v>29</v>
       </c>
@@ -1337,7 +1398,7 @@
       <c r="B44" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="C44">
+      <c r="C44" s="5">
         <f t="shared" si="0"/>
         <v>28</v>
       </c>
@@ -1349,7 +1410,7 @@
       <c r="B45" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="C45">
+      <c r="C45" s="5">
         <f t="shared" si="0"/>
         <v>28</v>
       </c>
@@ -1361,7 +1422,7 @@
       <c r="B46" s="4" t="s">
         <v>80</v>
       </c>
-      <c r="C46">
+      <c r="C46" s="5">
         <f t="shared" si="0"/>
         <v>27</v>
       </c>
@@ -1373,7 +1434,7 @@
       <c r="B47" s="4" t="s">
         <v>81</v>
       </c>
-      <c r="C47">
+      <c r="C47" s="5">
         <f t="shared" si="0"/>
         <v>27</v>
       </c>
@@ -1385,7 +1446,7 @@
       <c r="B48" s="4" t="s">
         <v>82</v>
       </c>
-      <c r="C48">
+      <c r="C48" s="5">
         <f t="shared" si="0"/>
         <v>27</v>
       </c>
@@ -1397,7 +1458,7 @@
       <c r="B49" s="4" t="s">
         <v>83</v>
       </c>
-      <c r="C49">
+      <c r="C49" s="5">
         <f t="shared" si="0"/>
         <v>27</v>
       </c>
@@ -1409,7 +1470,7 @@
       <c r="B50" s="4" t="s">
         <v>84</v>
       </c>
-      <c r="C50">
+      <c r="C50" s="5">
         <f t="shared" si="0"/>
         <v>27</v>
       </c>
@@ -1424,610 +1485,611 @@
   <dimension ref="A1:C50"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="2" width="10.83203125" style="2"/>
+    <col min="1" max="2" width="10.83203125" style="4"/>
+    <col min="3" max="16384" width="10.83203125" style="5"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A1" s="3">
+      <c r="A1" s="6">
         <v>3072</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C1">
+      <c r="C1" s="5">
         <f>ROUND(((A1/$A$1)*100),0)</f>
         <v>100</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A2" s="3">
+      <c r="A2" s="6">
         <v>2703</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="C2">
+      <c r="C2" s="5">
         <f t="shared" ref="C2:C50" si="0">ROUND(((A2/$A$1)*100),0)</f>
         <v>88</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A3" s="3">
+      <c r="A3" s="6">
         <v>2686</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B3" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C3">
+      <c r="C3" s="5">
         <f t="shared" si="0"/>
         <v>87</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A4" s="3">
+      <c r="A4" s="6">
         <v>2678</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="B4" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="C4">
+      <c r="C4" s="5">
         <f t="shared" si="0"/>
         <v>87</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A5" s="3">
+      <c r="A5" s="6">
         <v>2431</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="B5" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="C5">
+      <c r="C5" s="5">
         <f t="shared" si="0"/>
         <v>79</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A6" s="3">
+      <c r="A6" s="6">
         <v>2367</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="B6" s="4" t="s">
         <v>85</v>
       </c>
-      <c r="C6">
+      <c r="C6" s="5">
         <f t="shared" si="0"/>
         <v>77</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A7" s="3">
+      <c r="A7" s="6">
         <v>2313</v>
       </c>
-      <c r="B7" s="1" t="s">
+      <c r="B7" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="C7">
+      <c r="C7" s="5">
         <f t="shared" si="0"/>
         <v>75</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A8" s="3">
+      <c r="A8" s="6">
         <v>2309</v>
       </c>
-      <c r="B8" s="1" t="s">
+      <c r="B8" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="C8">
+      <c r="C8" s="5">
         <f t="shared" si="0"/>
         <v>75</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A9" s="3">
+      <c r="A9" s="6">
         <v>2216</v>
       </c>
-      <c r="B9" s="1" t="s">
+      <c r="B9" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="C9">
+      <c r="C9" s="5">
         <f t="shared" si="0"/>
         <v>72</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A10" s="3">
+      <c r="A10" s="6">
         <v>2109</v>
       </c>
-      <c r="B10" s="1" t="s">
+      <c r="B10" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="C10">
+      <c r="C10" s="5">
         <f t="shared" si="0"/>
         <v>69</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A11" s="3">
+      <c r="A11" s="6">
         <v>1873</v>
       </c>
-      <c r="B11" s="1" t="s">
+      <c r="B11" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="C11">
+      <c r="C11" s="5">
         <f t="shared" si="0"/>
         <v>61</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A12" s="3">
+      <c r="A12" s="6">
         <v>1870</v>
       </c>
-      <c r="B12" s="1" t="s">
+      <c r="B12" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="C12">
+      <c r="C12" s="5">
         <f t="shared" si="0"/>
         <v>61</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A13" s="3">
+      <c r="A13" s="6">
         <v>1811</v>
       </c>
-      <c r="B13" s="1" t="s">
+      <c r="B13" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="C13">
+      <c r="C13" s="5">
         <f t="shared" si="0"/>
         <v>59</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A14" s="3">
+      <c r="A14" s="6">
         <v>1807</v>
       </c>
-      <c r="B14" s="1" t="s">
+      <c r="B14" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="C14">
+      <c r="C14" s="5">
         <f t="shared" si="0"/>
         <v>59</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A15" s="3">
+      <c r="A15" s="6">
         <v>1748</v>
       </c>
-      <c r="B15" s="1" t="s">
+      <c r="B15" s="4" t="s">
         <v>86</v>
       </c>
-      <c r="C15">
+      <c r="C15" s="5">
         <f t="shared" si="0"/>
         <v>57</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A16" s="3">
+      <c r="A16" s="6">
         <v>1606</v>
       </c>
-      <c r="B16" s="1" t="s">
+      <c r="B16" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="C16">
+      <c r="C16" s="5">
         <f t="shared" si="0"/>
         <v>52</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A17" s="3">
+      <c r="A17" s="6">
         <v>1500</v>
       </c>
-      <c r="B17" s="1" t="s">
+      <c r="B17" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="C17">
+      <c r="C17" s="5">
         <f t="shared" si="0"/>
         <v>49</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A18" s="3">
+      <c r="A18" s="6">
         <v>1488</v>
       </c>
-      <c r="B18" s="1" t="s">
+      <c r="B18" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="C18">
+      <c r="C18" s="5">
         <f t="shared" si="0"/>
         <v>48</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A19" s="3">
+      <c r="A19" s="6">
         <v>1478</v>
       </c>
-      <c r="B19" s="1" t="s">
+      <c r="B19" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="C19">
+      <c r="C19" s="5">
         <f t="shared" si="0"/>
         <v>48</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A20" s="3">
+      <c r="A20" s="6">
         <v>1446</v>
       </c>
-      <c r="B20" s="1" t="s">
+      <c r="B20" s="4" t="s">
         <v>87</v>
       </c>
-      <c r="C20">
+      <c r="C20" s="5">
         <f t="shared" si="0"/>
         <v>47</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A21" s="3">
+      <c r="A21" s="6">
         <v>1441</v>
       </c>
-      <c r="B21" s="1" t="s">
+      <c r="B21" s="4" t="s">
         <v>88</v>
       </c>
-      <c r="C21">
+      <c r="C21" s="5">
         <f t="shared" si="0"/>
         <v>47</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A22" s="3">
+      <c r="A22" s="6">
         <v>1414</v>
       </c>
-      <c r="B22" s="1" t="s">
+      <c r="B22" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="C22">
+      <c r="C22" s="5">
         <f t="shared" si="0"/>
         <v>46</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A23" s="3">
+      <c r="A23" s="6">
         <v>1409</v>
       </c>
-      <c r="B23" s="1" t="s">
+      <c r="B23" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="C23">
+      <c r="C23" s="5">
         <f t="shared" si="0"/>
         <v>46</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A24" s="3">
+      <c r="A24" s="6">
         <v>1383</v>
       </c>
-      <c r="B24" s="1" t="s">
+      <c r="B24" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="C24">
+      <c r="C24" s="5">
         <f t="shared" si="0"/>
         <v>45</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A25" s="3">
+      <c r="A25" s="6">
         <v>1361</v>
       </c>
-      <c r="B25" s="1" t="s">
+      <c r="B25" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="C25">
+      <c r="C25" s="5">
         <f t="shared" si="0"/>
         <v>44</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A26" s="3">
+      <c r="A26" s="6">
         <v>1348</v>
       </c>
-      <c r="B26" s="1" t="s">
+      <c r="B26" s="4" t="s">
         <v>89</v>
       </c>
-      <c r="C26">
+      <c r="C26" s="5">
         <f t="shared" si="0"/>
         <v>44</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A27" s="3">
+      <c r="A27" s="6">
         <v>1334</v>
       </c>
-      <c r="B27" s="1" t="s">
+      <c r="B27" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="C27">
+      <c r="C27" s="5">
         <f t="shared" si="0"/>
         <v>43</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A28" s="3">
+      <c r="A28" s="6">
         <v>1330</v>
       </c>
-      <c r="B28" s="1" t="s">
+      <c r="B28" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="C28">
+      <c r="C28" s="5">
         <f t="shared" si="0"/>
         <v>43</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A29" s="3">
+      <c r="A29" s="6">
         <v>1329</v>
       </c>
-      <c r="B29" s="1" t="s">
+      <c r="B29" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="C29">
+      <c r="C29" s="5">
         <f t="shared" si="0"/>
         <v>43</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A30" s="3">
+      <c r="A30" s="6">
         <v>1296</v>
       </c>
-      <c r="B30" s="1" t="s">
+      <c r="B30" s="4" t="s">
         <v>90</v>
       </c>
-      <c r="C30">
+      <c r="C30" s="5">
         <f t="shared" si="0"/>
         <v>42</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A31" s="3">
+      <c r="A31" s="6">
         <v>1290</v>
       </c>
-      <c r="B31" s="1" t="s">
+      <c r="B31" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="C31">
+      <c r="C31" s="5">
         <f t="shared" si="0"/>
         <v>42</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A32" s="3">
+      <c r="A32" s="6">
         <v>1283</v>
       </c>
-      <c r="B32" s="1" t="s">
+      <c r="B32" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="C32">
+      <c r="C32" s="5">
         <f t="shared" si="0"/>
         <v>42</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A33" s="3">
+      <c r="A33" s="6">
         <v>1263</v>
       </c>
-      <c r="B33" s="1" t="s">
+      <c r="B33" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="C33">
+      <c r="C33" s="5">
         <f t="shared" si="0"/>
         <v>41</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A34" s="3">
+      <c r="A34" s="6">
         <v>1250</v>
       </c>
-      <c r="B34" s="1" t="s">
+      <c r="B34" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="C34">
+      <c r="C34" s="5">
         <f t="shared" si="0"/>
         <v>41</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A35" s="3">
+      <c r="A35" s="6">
         <v>1229</v>
       </c>
-      <c r="B35" s="1" t="s">
+      <c r="B35" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="C35">
+      <c r="C35" s="5">
         <f t="shared" si="0"/>
         <v>40</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A36" s="3">
+      <c r="A36" s="6">
         <v>1227</v>
       </c>
-      <c r="B36" s="1" t="s">
+      <c r="B36" s="4" t="s">
         <v>92</v>
       </c>
-      <c r="C36">
+      <c r="C36" s="5">
         <f t="shared" si="0"/>
         <v>40</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A37" s="3">
+      <c r="A37" s="6">
         <v>1217</v>
       </c>
-      <c r="B37" s="1" t="s">
+      <c r="B37" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="C37">
+      <c r="C37" s="5">
         <f t="shared" si="0"/>
         <v>40</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A38" s="3">
+      <c r="A38" s="6">
         <v>1210</v>
       </c>
-      <c r="B38" s="1" t="s">
+      <c r="B38" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="C38">
+      <c r="C38" s="5">
         <f t="shared" si="0"/>
         <v>39</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A39" s="3">
+      <c r="A39" s="6">
         <v>1180</v>
       </c>
-      <c r="B39" s="1" t="s">
+      <c r="B39" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="C39">
+      <c r="C39" s="5">
         <f t="shared" si="0"/>
         <v>38</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A40" s="3">
+      <c r="A40" s="6">
         <v>1098</v>
       </c>
-      <c r="B40" s="1" t="s">
+      <c r="B40" s="4" t="s">
         <v>93</v>
       </c>
-      <c r="C40">
+      <c r="C40" s="5">
         <f t="shared" si="0"/>
         <v>36</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A41" s="3">
+      <c r="A41" s="6">
         <v>1088</v>
       </c>
-      <c r="B41" s="1" t="s">
+      <c r="B41" s="4" t="s">
         <v>94</v>
       </c>
-      <c r="C41">
+      <c r="C41" s="5">
         <f t="shared" si="0"/>
         <v>35</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A42" s="3">
+      <c r="A42" s="6">
         <v>1087</v>
       </c>
-      <c r="B42" s="1" t="s">
+      <c r="B42" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="C42">
+      <c r="C42" s="5">
         <f t="shared" si="0"/>
         <v>35</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A43" s="3">
+      <c r="A43" s="6">
         <v>1084</v>
       </c>
-      <c r="B43" s="1" t="s">
+      <c r="B43" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="C43">
+      <c r="C43" s="5">
         <f t="shared" si="0"/>
         <v>35</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A44" s="3">
+      <c r="A44" s="6">
         <v>1077</v>
       </c>
-      <c r="B44" s="1" t="s">
+      <c r="B44" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C44">
+      <c r="C44" s="5">
         <f t="shared" si="0"/>
         <v>35</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A45" s="3">
+      <c r="A45" s="6">
         <v>1065</v>
       </c>
-      <c r="B45" s="1" t="s">
+      <c r="B45" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="C45">
+      <c r="C45" s="5">
         <f t="shared" si="0"/>
         <v>35</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A46" s="3">
+      <c r="A46" s="6">
         <v>1037</v>
       </c>
-      <c r="B46" s="1" t="s">
+      <c r="B46" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="C46">
+      <c r="C46" s="5">
         <f t="shared" si="0"/>
         <v>34</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A47" s="3">
+      <c r="A47" s="6">
         <v>1029</v>
       </c>
-      <c r="B47" s="1" t="s">
+      <c r="B47" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="C47">
+      <c r="C47" s="5">
         <f t="shared" si="0"/>
         <v>33</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A48" s="3">
+      <c r="A48" s="6">
         <v>1025</v>
       </c>
-      <c r="B48" s="1" t="s">
+      <c r="B48" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="C48">
+      <c r="C48" s="5">
         <f t="shared" si="0"/>
         <v>33</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A49" s="3">
+      <c r="A49" s="6">
         <v>1024</v>
       </c>
-      <c r="B49" s="1" t="s">
+      <c r="B49" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="C49">
+      <c r="C49" s="5">
         <f t="shared" si="0"/>
         <v>33</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A50" s="3">
+      <c r="A50" s="6">
         <v>1007</v>
       </c>
-      <c r="B50" s="1" t="s">
+      <c r="B50" s="4" t="s">
         <v>97</v>
       </c>
-      <c r="C50">
+      <c r="C50" s="5">
         <f t="shared" si="0"/>
         <v>33</v>
       </c>
@@ -2041,32 +2103,32 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{85914C95-BEE0-9C44-82A3-6C72AA68F96D}">
   <dimension ref="A1:C50"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="2" width="10.83203125" style="2"/>
+    <col min="1" max="2" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A1" s="3">
+      <c r="A1" s="2">
         <v>29228</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C1">
+      <c r="C1" s="5">
         <f>ROUND(((A1/$A$1)*100),0)</f>
         <v>100</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A2" s="3">
+      <c r="A2" s="2">
         <v>23739</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="3" t="s">
         <v>92</v>
       </c>
       <c r="C2">
@@ -2075,10 +2137,10 @@
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A3" s="3">
+      <c r="A3" s="2">
         <v>20510</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="B3" s="3" t="s">
         <v>98</v>
       </c>
       <c r="C3">
@@ -2087,10 +2149,10 @@
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A4" s="3">
+      <c r="A4" s="2">
         <v>18003</v>
       </c>
-      <c r="B4" s="5" t="s">
+      <c r="B4" s="3" t="s">
         <v>11</v>
       </c>
       <c r="C4">
@@ -2099,10 +2161,10 @@
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A5" s="3">
+      <c r="A5" s="2">
         <v>17829</v>
       </c>
-      <c r="B5" s="5" t="s">
+      <c r="B5" s="3" t="s">
         <v>99</v>
       </c>
       <c r="C5">
@@ -2111,10 +2173,10 @@
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A6" s="3">
+      <c r="A6" s="2">
         <v>17052</v>
       </c>
-      <c r="B6" s="5" t="s">
+      <c r="B6" s="3" t="s">
         <v>23</v>
       </c>
       <c r="C6">
@@ -2123,10 +2185,10 @@
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A7" s="3">
+      <c r="A7" s="2">
         <v>17034</v>
       </c>
-      <c r="B7" s="5" t="s">
+      <c r="B7" s="3" t="s">
         <v>100</v>
       </c>
       <c r="C7">
@@ -2135,10 +2197,10 @@
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A8" s="3">
+      <c r="A8" s="2">
         <v>16719</v>
       </c>
-      <c r="B8" s="5" t="s">
+      <c r="B8" s="3" t="s">
         <v>101</v>
       </c>
       <c r="C8">
@@ -2147,10 +2209,10 @@
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A9" s="3">
+      <c r="A9" s="2">
         <v>16504</v>
       </c>
-      <c r="B9" s="5" t="s">
+      <c r="B9" s="3" t="s">
         <v>26</v>
       </c>
       <c r="C9">
@@ -2159,10 +2221,10 @@
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A10" s="3">
+      <c r="A10" s="2">
         <v>16296</v>
       </c>
-      <c r="B10" s="5" t="s">
+      <c r="B10" s="3" t="s">
         <v>30</v>
       </c>
       <c r="C10">
@@ -2171,10 +2233,10 @@
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A11" s="3">
+      <c r="A11" s="2">
         <v>16242</v>
       </c>
-      <c r="B11" s="5" t="s">
+      <c r="B11" s="3" t="s">
         <v>22</v>
       </c>
       <c r="C11">
@@ -2183,10 +2245,10 @@
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A12" s="3">
+      <c r="A12" s="2">
         <v>16086</v>
       </c>
-      <c r="B12" s="5" t="s">
+      <c r="B12" s="3" t="s">
         <v>33</v>
       </c>
       <c r="C12">
@@ -2195,10 +2257,10 @@
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A13" s="3">
+      <c r="A13" s="2">
         <v>16027</v>
       </c>
-      <c r="B13" s="5" t="s">
+      <c r="B13" s="3" t="s">
         <v>102</v>
       </c>
       <c r="C13">
@@ -2207,10 +2269,10 @@
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A14" s="3">
+      <c r="A14" s="2">
         <v>15814</v>
       </c>
-      <c r="B14" s="5" t="s">
+      <c r="B14" s="3" t="s">
         <v>103</v>
       </c>
       <c r="C14">
@@ -2219,10 +2281,10 @@
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A15" s="3">
+      <c r="A15" s="2">
         <v>15695</v>
       </c>
-      <c r="B15" s="5" t="s">
+      <c r="B15" s="3" t="s">
         <v>104</v>
       </c>
       <c r="C15">
@@ -2231,10 +2293,10 @@
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A16" s="3">
+      <c r="A16" s="2">
         <v>15526</v>
       </c>
-      <c r="B16" s="5" t="s">
+      <c r="B16" s="3" t="s">
         <v>105</v>
       </c>
       <c r="C16">
@@ -2243,10 +2305,10 @@
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A17" s="3">
+      <c r="A17" s="2">
         <v>14414</v>
       </c>
-      <c r="B17" s="5" t="s">
+      <c r="B17" s="3" t="s">
         <v>106</v>
       </c>
       <c r="C17">
@@ -2255,10 +2317,10 @@
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A18" s="3">
+      <c r="A18" s="2">
         <v>14041</v>
       </c>
-      <c r="B18" s="5" t="s">
+      <c r="B18" s="3" t="s">
         <v>107</v>
       </c>
       <c r="C18">
@@ -2267,10 +2329,10 @@
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A19" s="3">
+      <c r="A19" s="2">
         <v>13747</v>
       </c>
-      <c r="B19" s="5" t="s">
+      <c r="B19" s="3" t="s">
         <v>4</v>
       </c>
       <c r="C19">
@@ -2279,10 +2341,10 @@
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A20" s="3">
+      <c r="A20" s="2">
         <v>13184</v>
       </c>
-      <c r="B20" s="5" t="s">
+      <c r="B20" s="3" t="s">
         <v>108</v>
       </c>
       <c r="C20">
@@ -2291,10 +2353,10 @@
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A21" s="3">
+      <c r="A21" s="2">
         <v>12780</v>
       </c>
-      <c r="B21" s="5" t="s">
+      <c r="B21" s="3" t="s">
         <v>89</v>
       </c>
       <c r="C21">
@@ -2303,10 +2365,10 @@
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A22" s="3">
+      <c r="A22" s="2">
         <v>12614</v>
       </c>
-      <c r="B22" s="5" t="s">
+      <c r="B22" s="3" t="s">
         <v>88</v>
       </c>
       <c r="C22">
@@ -2315,10 +2377,10 @@
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A23" s="3">
+      <c r="A23" s="2">
         <v>12212</v>
       </c>
-      <c r="B23" s="5" t="s">
+      <c r="B23" s="3" t="s">
         <v>109</v>
       </c>
       <c r="C23">
@@ -2327,10 +2389,10 @@
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A24" s="3">
+      <c r="A24" s="2">
         <v>12009</v>
       </c>
-      <c r="B24" s="5" t="s">
+      <c r="B24" s="3" t="s">
         <v>19</v>
       </c>
       <c r="C24">
@@ -2339,10 +2401,10 @@
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A25" s="3">
+      <c r="A25" s="2">
         <v>11660</v>
       </c>
-      <c r="B25" s="5" t="s">
+      <c r="B25" s="3" t="s">
         <v>28</v>
       </c>
       <c r="C25">
@@ -2351,10 +2413,10 @@
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A26" s="3">
+      <c r="A26" s="2">
         <v>10840</v>
       </c>
-      <c r="B26" s="5" t="s">
+      <c r="B26" s="3" t="s">
         <v>8</v>
       </c>
       <c r="C26">
@@ -2363,10 +2425,10 @@
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A27" s="3">
+      <c r="A27" s="2">
         <v>10811</v>
       </c>
-      <c r="B27" s="5" t="s">
+      <c r="B27" s="3" t="s">
         <v>110</v>
       </c>
       <c r="C27">
@@ -2375,10 +2437,10 @@
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A28" s="3">
+      <c r="A28" s="2">
         <v>10685</v>
       </c>
-      <c r="B28" s="5" t="s">
+      <c r="B28" s="3" t="s">
         <v>87</v>
       </c>
       <c r="C28">
@@ -2387,10 +2449,10 @@
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A29" s="3">
+      <c r="A29" s="2">
         <v>10340</v>
       </c>
-      <c r="B29" s="5" t="s">
+      <c r="B29" s="3" t="s">
         <v>29</v>
       </c>
       <c r="C29">
@@ -2399,10 +2461,10 @@
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A30" s="3">
+      <c r="A30" s="2">
         <v>10203</v>
       </c>
-      <c r="B30" s="5" t="s">
+      <c r="B30" s="3" t="s">
         <v>27</v>
       </c>
       <c r="C30">
@@ -2411,10 +2473,10 @@
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A31" s="3">
+      <c r="A31" s="2">
         <v>10090</v>
       </c>
-      <c r="B31" s="5" t="s">
+      <c r="B31" s="3" t="s">
         <v>111</v>
       </c>
       <c r="C31">
@@ -2423,10 +2485,10 @@
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A32" s="3">
+      <c r="A32" s="2">
         <v>10016</v>
       </c>
-      <c r="B32" s="5" t="s">
+      <c r="B32" s="3" t="s">
         <v>112</v>
       </c>
       <c r="C32">
@@ -2435,10 +2497,10 @@
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A33" s="3">
+      <c r="A33" s="2">
         <v>9619</v>
       </c>
-      <c r="B33" s="5" t="s">
+      <c r="B33" s="3" t="s">
         <v>113</v>
       </c>
       <c r="C33">
@@ -2447,10 +2509,10 @@
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A34" s="3">
+      <c r="A34" s="2">
         <v>9596</v>
       </c>
-      <c r="B34" s="5" t="s">
+      <c r="B34" s="3" t="s">
         <v>95</v>
       </c>
       <c r="C34">
@@ -2459,10 +2521,10 @@
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A35" s="3">
+      <c r="A35" s="2">
         <v>9580</v>
       </c>
-      <c r="B35" s="5" t="s">
+      <c r="B35" s="3" t="s">
         <v>114</v>
       </c>
       <c r="C35">
@@ -2471,10 +2533,10 @@
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A36" s="3">
+      <c r="A36" s="2">
         <v>9359</v>
       </c>
-      <c r="B36" s="5" t="s">
+      <c r="B36" s="3" t="s">
         <v>13</v>
       </c>
       <c r="C36">
@@ -2483,10 +2545,10 @@
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A37" s="3">
+      <c r="A37" s="2">
         <v>9079</v>
       </c>
-      <c r="B37" s="5" t="s">
+      <c r="B37" s="3" t="s">
         <v>32</v>
       </c>
       <c r="C37">
@@ -2495,10 +2557,10 @@
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A38" s="3">
+      <c r="A38" s="2">
         <v>8863</v>
       </c>
-      <c r="B38" s="5" t="s">
+      <c r="B38" s="3" t="s">
         <v>5</v>
       </c>
       <c r="C38">
@@ -2507,10 +2569,10 @@
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A39" s="3">
+      <c r="A39" s="2">
         <v>8591</v>
       </c>
-      <c r="B39" s="5" t="s">
+      <c r="B39" s="3" t="s">
         <v>115</v>
       </c>
       <c r="C39">
@@ -2519,10 +2581,10 @@
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A40" s="3">
+      <c r="A40" s="2">
         <v>8240</v>
       </c>
-      <c r="B40" s="5" t="s">
+      <c r="B40" s="3" t="s">
         <v>116</v>
       </c>
       <c r="C40">
@@ -2531,10 +2593,10 @@
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A41" s="3">
+      <c r="A41" s="2">
         <v>8231</v>
       </c>
-      <c r="B41" s="5" t="s">
+      <c r="B41" s="3" t="s">
         <v>97</v>
       </c>
       <c r="C41">
@@ -2543,10 +2605,10 @@
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A42" s="3">
+      <c r="A42" s="2">
         <v>8166</v>
       </c>
-      <c r="B42" s="5" t="s">
+      <c r="B42" s="3" t="s">
         <v>117</v>
       </c>
       <c r="C42">
@@ -2555,10 +2617,10 @@
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A43" s="3">
+      <c r="A43" s="2">
         <v>8160</v>
       </c>
-      <c r="B43" s="5" t="s">
+      <c r="B43" s="3" t="s">
         <v>118</v>
       </c>
       <c r="C43">
@@ -2567,10 +2629,10 @@
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A44" s="3">
+      <c r="A44" s="2">
         <v>7986</v>
       </c>
-      <c r="B44" s="5" t="s">
+      <c r="B44" s="3" t="s">
         <v>119</v>
       </c>
       <c r="C44">
@@ -2579,10 +2641,10 @@
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A45" s="3">
+      <c r="A45" s="2">
         <v>7929</v>
       </c>
-      <c r="B45" s="5" t="s">
+      <c r="B45" s="3" t="s">
         <v>120</v>
       </c>
       <c r="C45">
@@ -2591,10 +2653,10 @@
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A46" s="3">
+      <c r="A46" s="2">
         <v>7493</v>
       </c>
-      <c r="B46" s="5" t="s">
+      <c r="B46" s="3" t="s">
         <v>24</v>
       </c>
       <c r="C46">
@@ -2603,10 +2665,10 @@
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A47" s="3">
+      <c r="A47" s="2">
         <v>7431</v>
       </c>
-      <c r="B47" s="5" t="s">
+      <c r="B47" s="3" t="s">
         <v>121</v>
       </c>
       <c r="C47">
@@ -2615,10 +2677,10 @@
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A48" s="3">
+      <c r="A48" s="2">
         <v>7378</v>
       </c>
-      <c r="B48" s="5" t="s">
+      <c r="B48" s="3" t="s">
         <v>3</v>
       </c>
       <c r="C48">
@@ -2627,10 +2689,10 @@
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A49" s="3">
+      <c r="A49" s="2">
         <v>7165</v>
       </c>
-      <c r="B49" s="5" t="s">
+      <c r="B49" s="3" t="s">
         <v>31</v>
       </c>
       <c r="C49">
@@ -2639,10 +2701,10 @@
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A50" s="3">
+      <c r="A50" s="2">
         <v>7095</v>
       </c>
-      <c r="B50" s="5" t="s">
+      <c r="B50" s="3" t="s">
         <v>122</v>
       </c>
       <c r="C50">
@@ -2653,4 +2715,483 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AF934723-2991-8B4A-B946-F4739365D74C}">
+  <dimension ref="A1:B50"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="2" width="10.83203125" style="10"/>
+    <col min="3" max="16384" width="10.83203125" style="9"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1" s="7">
+        <v>33137</v>
+      </c>
+      <c r="B1" s="8" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2" s="7">
+        <v>25206</v>
+      </c>
+      <c r="B2" s="8" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3" s="7">
+        <v>23048</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4" s="7">
+        <v>22527</v>
+      </c>
+      <c r="B4" s="8" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5" s="7">
+        <v>22295</v>
+      </c>
+      <c r="B5" s="8" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A6" s="7">
+        <v>22169</v>
+      </c>
+      <c r="B6" s="8" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A7" s="7">
+        <v>21096</v>
+      </c>
+      <c r="B7" s="8" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A8" s="7">
+        <v>21082</v>
+      </c>
+      <c r="B8" s="8" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A9" s="7">
+        <v>20408</v>
+      </c>
+      <c r="B9" s="8" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A10" s="7">
+        <v>20245</v>
+      </c>
+      <c r="B10" s="8" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A11" s="7">
+        <v>19303</v>
+      </c>
+      <c r="B11" s="8" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A12" s="7">
+        <v>19180</v>
+      </c>
+      <c r="B12" s="8" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A13" s="7">
+        <v>18675</v>
+      </c>
+      <c r="B13" s="8" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A14" s="7">
+        <v>18452</v>
+      </c>
+      <c r="B14" s="8" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A15" s="7">
+        <v>18394</v>
+      </c>
+      <c r="B15" s="8" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A16" s="7">
+        <v>18372</v>
+      </c>
+      <c r="B16" s="8" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A17" s="7">
+        <v>18236</v>
+      </c>
+      <c r="B17" s="8" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A18" s="7">
+        <v>18041</v>
+      </c>
+      <c r="B18" s="8" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A19" s="7">
+        <v>17916</v>
+      </c>
+      <c r="B19" s="8" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A20" s="7">
+        <v>17723</v>
+      </c>
+      <c r="B20" s="8" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A21" s="7">
+        <v>17595</v>
+      </c>
+      <c r="B21" s="8" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A22" s="7">
+        <v>17242</v>
+      </c>
+      <c r="B22" s="8" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A23" s="7">
+        <v>16994</v>
+      </c>
+      <c r="B23" s="8" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A24" s="7">
+        <v>15516</v>
+      </c>
+      <c r="B24" s="8" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A25" s="7">
+        <v>15056</v>
+      </c>
+      <c r="B25" s="8" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A26" s="7">
+        <v>15017</v>
+      </c>
+      <c r="B26" s="8" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A27" s="7">
+        <v>14797</v>
+      </c>
+      <c r="B27" s="8" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A28" s="7">
+        <v>14774</v>
+      </c>
+      <c r="B28" s="8" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A29" s="7">
+        <v>14483</v>
+      </c>
+      <c r="B29" s="8" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A30" s="7">
+        <v>14243</v>
+      </c>
+      <c r="B30" s="8" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A31" s="7">
+        <v>13735</v>
+      </c>
+      <c r="B31" s="8" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A32" s="7">
+        <v>13423</v>
+      </c>
+      <c r="B32" s="8" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A33" s="7">
+        <v>13359</v>
+      </c>
+      <c r="B33" s="8" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A34" s="7">
+        <v>13167</v>
+      </c>
+      <c r="B34" s="8" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A35" s="7">
+        <v>12936</v>
+      </c>
+      <c r="B35" s="8" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A36" s="7">
+        <v>12535</v>
+      </c>
+      <c r="B36" s="8" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A37" s="7">
+        <v>12312</v>
+      </c>
+      <c r="B37" s="8" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A38" s="7">
+        <v>12202</v>
+      </c>
+      <c r="B38" s="8" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A39" s="7">
+        <v>11973</v>
+      </c>
+      <c r="B39" s="8" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A40" s="7">
+        <v>11884</v>
+      </c>
+      <c r="B40" s="8" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A41" s="7">
+        <v>11789</v>
+      </c>
+      <c r="B41" s="8" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A42" s="7">
+        <v>11633</v>
+      </c>
+      <c r="B42" s="8" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A43" s="7">
+        <v>11619</v>
+      </c>
+      <c r="B43" s="8" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A44" s="7">
+        <v>11518</v>
+      </c>
+      <c r="B44" s="8" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A45" s="7">
+        <v>11435</v>
+      </c>
+      <c r="B45" s="8" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A46" s="7">
+        <v>11238</v>
+      </c>
+      <c r="B46" s="8" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A47" s="7">
+        <v>11233</v>
+      </c>
+      <c r="B47" s="8" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A48" s="7">
+        <v>11190</v>
+      </c>
+      <c r="B48" s="8" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A49" s="7">
+        <v>11124</v>
+      </c>
+      <c r="B49" s="8" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A50" s="7">
+        <v>11067</v>
+      </c>
+      <c r="B50" s="8" t="s">
+        <v>133</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D0EAF86D-7917-AD44-AA7D-364B101B471B}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F37F280A-104D-D24D-AE71-92E7A9B0BCAF}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6EA16D29-7713-5343-BA73-CF8F78560340}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{95996710-5F74-8B4E-BF52-0A2DDB742296}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B217E712-D94B-5C46-97AD-BB2CB2F28F23}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/contexts.xlsx
+++ b/contexts.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/angus/vc/nlp_youth_awards/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{81951B7A-A2A8-8D42-BE9C-C1EFE38A64E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F8A9858-72AE-0B48-ADDC-8E2080E248FF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3240" yWindow="2900" windowWidth="25560" windowHeight="14620" xr2:uid="{93BF21BB-41B4-D544-8F23-BCC3D9D3D76D}"/>
+    <workbookView xWindow="3240" yWindow="2900" windowWidth="25560" windowHeight="14620" activeTab="8" xr2:uid="{93BF21BB-41B4-D544-8F23-BCC3D9D3D76D}"/>
   </bookViews>
   <sheets>
     <sheet name="lettuce" sheetId="1" r:id="rId1"/>
@@ -334,10 +334,10 @@
     <t>count</t>
   </si>
   <si>
-    <t>context-word</t>
-  </si>
-  <si>
     <t>relative-count</t>
+  </si>
+  <si>
+    <t>context</t>
   </si>
 </sst>
 </file>
@@ -759,8 +759,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6E46DB57-D1BD-3E4B-AD37-0B653023E1A8}">
   <dimension ref="A1:C51"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:C1"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -776,10 +776,10 @@
         <v>95</v>
       </c>
       <c r="B1" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="C1" s="8" t="s">
         <v>96</v>
-      </c>
-      <c r="C1" s="8" t="s">
-        <v>97</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
@@ -1392,7 +1392,7 @@
   <dimension ref="A1:C51"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:C1"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1408,10 +1408,10 @@
         <v>95</v>
       </c>
       <c r="B1" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="C1" s="8" t="s">
         <v>96</v>
-      </c>
-      <c r="C1" s="8" t="s">
-        <v>97</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
@@ -2024,7 +2024,7 @@
   <dimension ref="A1:D51"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:C1"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2039,10 +2039,10 @@
         <v>95</v>
       </c>
       <c r="B1" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="C1" s="8" t="s">
         <v>96</v>
-      </c>
-      <c r="C1" s="8" t="s">
-        <v>97</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
@@ -2705,7 +2705,7 @@
   <dimension ref="A1:D51"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:C1"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2720,10 +2720,10 @@
         <v>95</v>
       </c>
       <c r="B1" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="C1" s="8" t="s">
         <v>96</v>
-      </c>
-      <c r="C1" s="8" t="s">
-        <v>97</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
@@ -3386,7 +3386,7 @@
   <dimension ref="A1:C1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:C1"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3400,10 +3400,10 @@
         <v>95</v>
       </c>
       <c r="B1" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="C1" s="8" t="s">
         <v>96</v>
-      </c>
-      <c r="C1" s="8" t="s">
-        <v>97</v>
       </c>
     </row>
   </sheetData>
@@ -3416,7 +3416,7 @@
   <dimension ref="A1:C1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:C1"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3430,10 +3430,10 @@
         <v>95</v>
       </c>
       <c r="B1" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="C1" s="8" t="s">
         <v>96</v>
-      </c>
-      <c r="C1" s="8" t="s">
-        <v>97</v>
       </c>
     </row>
   </sheetData>
@@ -3446,7 +3446,7 @@
   <dimension ref="A1:C1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:C1"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3460,10 +3460,10 @@
         <v>95</v>
       </c>
       <c r="B1" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="C1" s="8" t="s">
         <v>96</v>
-      </c>
-      <c r="C1" s="8" t="s">
-        <v>97</v>
       </c>
     </row>
   </sheetData>
@@ -3476,7 +3476,7 @@
   <dimension ref="A1:C1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:C1"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3490,10 +3490,10 @@
         <v>95</v>
       </c>
       <c r="B1" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="C1" s="8" t="s">
         <v>96</v>
-      </c>
-      <c r="C1" s="8" t="s">
-        <v>97</v>
       </c>
     </row>
   </sheetData>
@@ -3505,8 +3505,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B217E712-D94B-5C46-97AD-BB2CB2F28F23}">
   <dimension ref="A1:C1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:C1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3520,10 +3520,10 @@
         <v>95</v>
       </c>
       <c r="B1" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="C1" s="8" t="s">
         <v>96</v>
-      </c>
-      <c r="C1" s="8" t="s">
-        <v>97</v>
       </c>
     </row>
   </sheetData>
